--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>351628.8690919394</v>
+        <v>351628.8690919396</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3561341.018743679</v>
+        <v>3561341.01874368</v>
       </c>
     </row>
     <row r="11">
@@ -1367,31 +1367,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56.37586062903345</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23.48030542320597</v>
+      </c>
+      <c r="G11" t="n">
         <v>64.00529135902983</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>32.89555520582749</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17.77556708637187</v>
+      </c>
+      <c r="G12" t="n">
         <v>64.00529135902983</v>
-      </c>
-      <c r="F12" t="n">
-        <v>64.00529135902983</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>64.00529135902983</v>
       </c>
       <c r="I12" t="n">
-        <v>17.77556708637186</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="J12" t="n">
         <v>38.60029354266159</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>64.00529135902987</v>
+        <v>23.48030542320597</v>
       </c>
       <c r="G14" t="n">
         <v>64.00529135902987</v>
@@ -1625,10 +1625,10 @@
         <v>64.00529135902987</v>
       </c>
       <c r="I14" t="n">
-        <v>56.37586062903348</v>
+        <v>64.00529135902987</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>32.89555520582749</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1689,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>17.7755670863719</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>64.00529135902987</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>64.00529135902987</v>
@@ -1704,7 +1704,7 @@
         <v>64.00529135902987</v>
       </c>
       <c r="I15" t="n">
-        <v>17.77556708637189</v>
+        <v>64.00529135902987</v>
       </c>
       <c r="J15" t="n">
         <v>38.60029354266159</v>
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>23.48030542320598</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>32.89555520582749</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,22 +1889,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>64.00529135902987</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>64.00529135902987</v>
       </c>
       <c r="T17" t="n">
-        <v>64.00529135902987</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>64.00529135902987</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>64.00529135902987</v>
       </c>
       <c r="W17" t="n">
-        <v>56.37586062903348</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>64.00529135902987</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>64.00529135902987</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>64.00529135902987</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>35.61136258595539</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>20.76449804307808</v>
       </c>
       <c r="R18" t="n">
-        <v>64.00529135902987</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>64.00529135902987</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>64.00529135902987</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>35.61136258595539</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.15495265394779</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>76.15495265394779</v>
       </c>
       <c r="D20" t="n">
-        <v>43.74264281457767</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>33.80723145564642</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>76.15495265394779</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>76.15495265394779</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>9.935411358931269</v>
       </c>
       <c r="Y20" t="n">
-        <v>76.15495265394779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,55 +2166,55 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>67.07728229759718</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>76.15495265394779</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>20.76449804307808</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>76.15495265394779</v>
       </c>
       <c r="U21" t="n">
-        <v>76.15495265394779</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>76.15495265394779</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>46.31278425451912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>31.84001998666731</v>
+      </c>
+      <c r="F23" t="n">
         <v>82.04763190931209</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>82.04763190931209</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>82.04763190931209</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>31.84001998666731</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>82.04763190931209</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.04763190931209</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>51.50305614264399</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>82.04763190931209</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>82.04763190931209</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>20.76449804307808</v>
       </c>
       <c r="R24" t="n">
-        <v>72.26755418572206</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>82.04763190931209</v>
-      </c>
-      <c r="T24" t="n">
-        <v>82.04763190931209</v>
-      </c>
-      <c r="U24" t="n">
-        <v>82.04763190931209</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2555,55 +2555,55 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>82.04763190931209</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="S26" t="n">
         <v>82.04763190931209</v>
-      </c>
-      <c r="J26" t="n">
-        <v>31.84001998666731</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>82.04763190931209</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>31.84001998666731</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>82.04763190931209</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>82.04763190931209</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.3668131728592</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>4.900741012862857</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>82.04763190931209</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
       <c r="W27" t="n">
-        <v>82.04763190931209</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>82.04763190931209</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>72.26755418572206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.04763190931209</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>82.04763190931209</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>82.04763190931209</v>
       </c>
       <c r="V29" t="n">
-        <v>82.04763190931209</v>
+        <v>31.84001998666731</v>
       </c>
       <c r="W29" t="n">
-        <v>82.04763190931209</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>82.04763190931209</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.84001998666738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>82.04763190931209</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,58 +2883,58 @@
         <v>82.04763190931209</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>20.76449804307808</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>51.50305614264399</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>82.04763190931209</v>
-      </c>
-      <c r="H30" t="n">
-        <v>82.04763190931209</v>
-      </c>
-      <c r="I30" t="n">
-        <v>67.3668131728592</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>4.900741012862857</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3026,73 +3026,73 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>82.04763190931209</v>
       </c>
-      <c r="C32" t="n">
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>31.84001998666731</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>82.04763190931209</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>31.84001998666731</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>82.04763190931209</v>
@@ -3108,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>72.26755418572206</v>
+      </c>
+      <c r="F33" t="n">
         <v>82.04763190931209</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>82.04763190931209</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.3668131728592</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,16 +3159,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
         <v>82.04763190931209</v>
-      </c>
-      <c r="U33" t="n">
-        <v>82.04763190931209</v>
-      </c>
-      <c r="V33" t="n">
-        <v>4.900741012862857</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3266,61 +3266,61 @@
         <v>67.52129922657747</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>18.91268419271102</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>33.80723145564642</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>67.52129922657747</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>52.71991564835743</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>67.52129922657747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>67.52129922657747</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>67.52129922657747</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>67.52129922657747</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.3668131728592</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>59.47276035876939</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>59.62724641248769</v>
       </c>
       <c r="Y36" t="n">
         <v>67.52129922657747</v>
@@ -3512,19 +3512,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>19.82436044252993</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>67.52129922657747</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>67.52129922657747</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.52129922657747</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>32.89555520582749</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>67.52129922657747</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.52129922657747</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>67.52129922657747</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>52.71991564835743</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3591,64 +3591,64 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>59.47276035876939</v>
+      </c>
+      <c r="T39" t="n">
         <v>67.52129922657747</v>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>67.52129922657747</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>67.52129922657747</v>
       </c>
       <c r="W39" t="n">
-        <v>59.47276035876939</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>67.52129922657747</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>67.52129922657747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3737,70 +3737,70 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>52.71991564835741</v>
+      </c>
+      <c r="U41" t="n">
         <v>67.52129922657747</v>
       </c>
-      <c r="C41" t="n">
+      <c r="V41" t="n">
         <v>67.52129922657747</v>
       </c>
-      <c r="D41" t="n">
+      <c r="W41" t="n">
         <v>67.52129922657747</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>18.91268419271102</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>33.80723145564642</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>67.52129922657747</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>67.52129922657747</v>
       </c>
       <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>59.47276035876939</v>
+      </c>
+      <c r="X42" t="n">
         <v>67.52129922657747</v>
       </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
       <c r="Y42" t="n">
-        <v>59.47276035876941</v>
+        <v>67.52129922657747</v>
       </c>
     </row>
     <row r="43">
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>55.37163793165955</v>
       </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
-        <v>55.37163793165955</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>55.37163793165955</v>
       </c>
       <c r="X44" t="n">
+        <v>55.37163793165955</v>
+      </c>
+      <c r="Y44" t="n">
         <v>48.77133869020571</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>55.37163793165955</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4098,19 +4098,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>20.76449804307808</v>
       </c>
       <c r="R45" t="n">
-        <v>48.7713386902057</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>28.00684064712761</v>
+      </c>
+      <c r="U45" t="n">
         <v>55.37163793165955</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>55.37163793165955</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>55.37163793165955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69.77223276228787</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="C11" t="n">
-        <v>69.77223276228787</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="D11" t="n">
-        <v>5.120423308722386</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="E11" t="n">
-        <v>5.120423308722386</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="F11" t="n">
-        <v>5.120423308722386</v>
+        <v>232.3036852106587</v>
       </c>
       <c r="G11" t="n">
-        <v>5.120423308722386</v>
+        <v>167.6518757570933</v>
       </c>
       <c r="H11" t="n">
-        <v>5.120423308722386</v>
+        <v>103.0000663035278</v>
       </c>
       <c r="I11" t="n">
-        <v>5.120423308722386</v>
+        <v>38.34825684996228</v>
       </c>
       <c r="J11" t="n">
         <v>5.120423308722386</v>
@@ -5081,10 +5081,10 @@
         <v>256.0211654361193</v>
       </c>
       <c r="X11" t="n">
-        <v>191.3693559825538</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="Y11" t="n">
-        <v>126.7175465289883</v>
+        <v>256.0211654361193</v>
       </c>
     </row>
     <row r="12">
@@ -5103,16 +5103,16 @@
         <v>256.0211654361193</v>
       </c>
       <c r="E12" t="n">
-        <v>191.3693559825538</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="F12" t="n">
-        <v>126.7175465289883</v>
+        <v>238.0660471670568</v>
       </c>
       <c r="G12" t="n">
-        <v>126.7175465289883</v>
+        <v>173.4142377134913</v>
       </c>
       <c r="H12" t="n">
-        <v>62.06573707542285</v>
+        <v>108.7624282599259</v>
       </c>
       <c r="I12" t="n">
         <v>44.11061880636036</v>
@@ -5124,7 +5124,7 @@
         <v>5.120423308722386</v>
       </c>
       <c r="L12" t="n">
-        <v>68.48566175416191</v>
+        <v>22.00098250561112</v>
       </c>
       <c r="M12" t="n">
         <v>85.36622095105065</v>
@@ -5264,16 +5264,16 @@
         <v>256.0211654361195</v>
       </c>
       <c r="F14" t="n">
-        <v>191.3693559825539</v>
+        <v>232.3036852106589</v>
       </c>
       <c r="G14" t="n">
-        <v>126.7175465289884</v>
+        <v>167.6518757570934</v>
       </c>
       <c r="H14" t="n">
-        <v>62.06573707542287</v>
+        <v>103.0000663035278</v>
       </c>
       <c r="I14" t="n">
-        <v>5.12042330872239</v>
+        <v>38.34825684996228</v>
       </c>
       <c r="J14" t="n">
         <v>5.12042330872239</v>
@@ -5337,19 +5337,19 @@
         <v>256.0211654361195</v>
       </c>
       <c r="D15" t="n">
-        <v>256.0211654361195</v>
+        <v>238.066047167057</v>
       </c>
       <c r="E15" t="n">
-        <v>256.0211654361195</v>
+        <v>238.066047167057</v>
       </c>
       <c r="F15" t="n">
-        <v>191.3693559825539</v>
+        <v>238.066047167057</v>
       </c>
       <c r="G15" t="n">
-        <v>126.7175465289884</v>
+        <v>173.4142377134914</v>
       </c>
       <c r="H15" t="n">
-        <v>62.06573707542287</v>
+        <v>108.7624282599259</v>
       </c>
       <c r="I15" t="n">
         <v>44.11061880636036</v>
@@ -5358,16 +5358,16 @@
         <v>5.12042330872239</v>
       </c>
       <c r="K15" t="n">
-        <v>17.9609387032273</v>
+        <v>5.12042330872239</v>
       </c>
       <c r="L15" t="n">
-        <v>81.32617714866687</v>
+        <v>22.0009825056112</v>
       </c>
       <c r="M15" t="n">
-        <v>144.6914155941064</v>
+        <v>85.36622095105076</v>
       </c>
       <c r="N15" t="n">
-        <v>208.056654039546</v>
+        <v>148.7314593964903</v>
       </c>
       <c r="O15" t="n">
         <v>212.0966978419299</v>
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.12042330872239</v>
+        <v>62.06573707542287</v>
       </c>
       <c r="C17" t="n">
-        <v>5.12042330872239</v>
+        <v>62.06573707542287</v>
       </c>
       <c r="D17" t="n">
-        <v>5.12042330872239</v>
+        <v>62.06573707542287</v>
       </c>
       <c r="E17" t="n">
-        <v>5.12042330872239</v>
+        <v>62.06573707542287</v>
       </c>
       <c r="F17" t="n">
-        <v>5.12042330872239</v>
+        <v>62.06573707542287</v>
       </c>
       <c r="G17" t="n">
-        <v>5.12042330872239</v>
+        <v>62.06573707542287</v>
       </c>
       <c r="H17" t="n">
-        <v>5.12042330872239</v>
+        <v>38.34825684996228</v>
       </c>
       <c r="I17" t="n">
-        <v>5.12042330872239</v>
+        <v>38.34825684996228</v>
       </c>
       <c r="J17" t="n">
         <v>5.12042330872239</v>
@@ -5537,13 +5537,13 @@
         <v>256.0211654361195</v>
       </c>
       <c r="R17" t="n">
-        <v>256.0211654361195</v>
+        <v>191.3693559825539</v>
       </c>
       <c r="S17" t="n">
-        <v>256.0211654361195</v>
+        <v>126.7175465289884</v>
       </c>
       <c r="T17" t="n">
-        <v>191.3693559825539</v>
+        <v>126.7175465289884</v>
       </c>
       <c r="U17" t="n">
         <v>126.7175465289884</v>
@@ -5552,13 +5552,13 @@
         <v>62.06573707542287</v>
       </c>
       <c r="W17" t="n">
-        <v>5.12042330872239</v>
+        <v>62.06573707542287</v>
       </c>
       <c r="X17" t="n">
-        <v>5.12042330872239</v>
+        <v>62.06573707542287</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.12042330872239</v>
+        <v>62.06573707542287</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.12042330872239</v>
+        <v>235.0469249885658</v>
       </c>
       <c r="C18" t="n">
-        <v>5.12042330872239</v>
+        <v>235.0469249885658</v>
       </c>
       <c r="D18" t="n">
-        <v>5.12042330872239</v>
+        <v>235.0469249885658</v>
       </c>
       <c r="E18" t="n">
-        <v>5.12042330872239</v>
+        <v>235.0469249885658</v>
       </c>
       <c r="F18" t="n">
-        <v>5.12042330872239</v>
+        <v>235.0469249885658</v>
       </c>
       <c r="G18" t="n">
-        <v>5.12042330872239</v>
+        <v>170.3951155350003</v>
       </c>
       <c r="H18" t="n">
-        <v>5.12042330872239</v>
+        <v>105.7433060814348</v>
       </c>
       <c r="I18" t="n">
-        <v>5.12042330872239</v>
+        <v>41.09149662786925</v>
       </c>
       <c r="J18" t="n">
         <v>5.12042330872239</v>
       </c>
       <c r="K18" t="n">
-        <v>5.12042330872239</v>
+        <v>17.9609387032273</v>
       </c>
       <c r="L18" t="n">
-        <v>22.0009825056112</v>
+        <v>81.32617714866687</v>
       </c>
       <c r="M18" t="n">
         <v>85.36622095105076</v>
@@ -5616,28 +5616,28 @@
         <v>235.0469249885658</v>
       </c>
       <c r="R18" t="n">
-        <v>170.3951155350003</v>
+        <v>235.0469249885658</v>
       </c>
       <c r="S18" t="n">
-        <v>105.7433060814348</v>
+        <v>235.0469249885658</v>
       </c>
       <c r="T18" t="n">
-        <v>41.09149662786925</v>
+        <v>235.0469249885658</v>
       </c>
       <c r="U18" t="n">
-        <v>5.12042330872239</v>
+        <v>235.0469249885658</v>
       </c>
       <c r="V18" t="n">
-        <v>5.12042330872239</v>
+        <v>235.0469249885658</v>
       </c>
       <c r="W18" t="n">
-        <v>5.12042330872239</v>
+        <v>235.0469249885658</v>
       </c>
       <c r="X18" t="n">
-        <v>5.12042330872239</v>
+        <v>235.0469249885658</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.12042330872239</v>
+        <v>235.0469249885658</v>
       </c>
     </row>
     <row r="19">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>127.2010785037557</v>
+        <v>83.01659081226309</v>
       </c>
       <c r="C20" t="n">
-        <v>50.27688390380843</v>
+        <v>6.092396212315824</v>
       </c>
       <c r="D20" t="n">
         <v>6.092396212315824</v>
@@ -5771,31 +5771,31 @@
         <v>281.0494677036502</v>
       </c>
       <c r="Q20" t="n">
-        <v>281.0494677036502</v>
+        <v>246.9007490615832</v>
       </c>
       <c r="R20" t="n">
-        <v>281.0494677036502</v>
+        <v>246.9007490615832</v>
       </c>
       <c r="S20" t="n">
-        <v>281.0494677036502</v>
+        <v>246.9007490615832</v>
       </c>
       <c r="T20" t="n">
-        <v>281.0494677036502</v>
+        <v>169.9765544616359</v>
       </c>
       <c r="U20" t="n">
-        <v>281.0494677036502</v>
+        <v>169.9765544616359</v>
       </c>
       <c r="V20" t="n">
-        <v>281.0494677036502</v>
+        <v>169.9765544616359</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0494677036502</v>
+        <v>93.05235986168861</v>
       </c>
       <c r="X20" t="n">
-        <v>281.0494677036502</v>
+        <v>83.01659081226309</v>
       </c>
       <c r="Y20" t="n">
-        <v>204.125273103703</v>
+        <v>83.01659081226309</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83.01659081226309</v>
+        <v>73.84722681594934</v>
       </c>
       <c r="C21" t="n">
-        <v>83.01659081226309</v>
+        <v>73.84722681594934</v>
       </c>
       <c r="D21" t="n">
-        <v>83.01659081226309</v>
+        <v>73.84722681594934</v>
       </c>
       <c r="E21" t="n">
-        <v>6.092396212315824</v>
+        <v>73.84722681594934</v>
       </c>
       <c r="F21" t="n">
-        <v>6.092396212315824</v>
+        <v>73.84722681594934</v>
       </c>
       <c r="G21" t="n">
-        <v>6.092396212315824</v>
+        <v>73.84722681594934</v>
       </c>
       <c r="H21" t="n">
-        <v>6.092396212315824</v>
+        <v>73.84722681594934</v>
       </c>
       <c r="I21" t="n">
         <v>6.092396212315824</v>
@@ -5835,46 +5835,46 @@
         <v>18.93291160682074</v>
       </c>
       <c r="L21" t="n">
-        <v>82.5211103279083</v>
+        <v>34.51513363937664</v>
       </c>
       <c r="M21" t="n">
-        <v>153.8330043609745</v>
+        <v>109.9085367667849</v>
       </c>
       <c r="N21" t="n">
-        <v>229.2264074883828</v>
+        <v>185.3019398941933</v>
       </c>
       <c r="O21" t="n">
-        <v>304.6198106157912</v>
+        <v>260.6953430216016</v>
       </c>
       <c r="P21" t="n">
         <v>304.6198106157912</v>
       </c>
       <c r="Q21" t="n">
-        <v>283.6455701682376</v>
+        <v>304.6198106157912</v>
       </c>
       <c r="R21" t="n">
-        <v>283.6455701682376</v>
+        <v>304.6198106157912</v>
       </c>
       <c r="S21" t="n">
-        <v>283.6455701682376</v>
+        <v>227.6956160158439</v>
       </c>
       <c r="T21" t="n">
-        <v>283.6455701682376</v>
+        <v>150.7714214158966</v>
       </c>
       <c r="U21" t="n">
-        <v>206.7213755682903</v>
+        <v>150.7714214158966</v>
       </c>
       <c r="V21" t="n">
-        <v>129.797180968343</v>
+        <v>73.84722681594934</v>
       </c>
       <c r="W21" t="n">
-        <v>129.797180968343</v>
+        <v>73.84722681594934</v>
       </c>
       <c r="X21" t="n">
-        <v>129.797180968343</v>
+        <v>73.84722681594934</v>
       </c>
       <c r="Y21" t="n">
-        <v>83.01659081226309</v>
+        <v>73.84722681594934</v>
       </c>
     </row>
     <row r="22">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.563810552744967</v>
+        <v>287.35463450689</v>
       </c>
       <c r="C23" t="n">
-        <v>6.563810552744967</v>
+        <v>287.35463450689</v>
       </c>
       <c r="D23" t="n">
-        <v>6.563810552744967</v>
+        <v>287.35463450689</v>
       </c>
       <c r="E23" t="n">
-        <v>6.563810552744967</v>
+        <v>255.192998156721</v>
       </c>
       <c r="F23" t="n">
-        <v>6.563810552744967</v>
+        <v>172.316602288729</v>
       </c>
       <c r="G23" t="n">
-        <v>6.563810552744967</v>
+        <v>89.44020642073698</v>
       </c>
       <c r="H23" t="n">
         <v>6.563810552744967</v>
@@ -6008,31 +6008,31 @@
         <v>287.35463450689</v>
       </c>
       <c r="Q23" t="n">
-        <v>255.192998156721</v>
+        <v>287.35463450689</v>
       </c>
       <c r="R23" t="n">
-        <v>172.316602288729</v>
+        <v>287.35463450689</v>
       </c>
       <c r="S23" t="n">
-        <v>89.44020642073698</v>
+        <v>287.35463450689</v>
       </c>
       <c r="T23" t="n">
-        <v>89.44020642073698</v>
+        <v>287.35463450689</v>
       </c>
       <c r="U23" t="n">
-        <v>89.44020642073698</v>
+        <v>287.35463450689</v>
       </c>
       <c r="V23" t="n">
-        <v>89.44020642073698</v>
+        <v>287.35463450689</v>
       </c>
       <c r="W23" t="n">
-        <v>89.44020642073698</v>
+        <v>287.35463450689</v>
       </c>
       <c r="X23" t="n">
-        <v>89.44020642073698</v>
+        <v>287.35463450689</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.44020642073698</v>
+        <v>287.35463450689</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.563810552744967</v>
+        <v>172.316602288729</v>
       </c>
       <c r="C24" t="n">
-        <v>6.563810552744967</v>
+        <v>89.44020642073698</v>
       </c>
       <c r="D24" t="n">
         <v>6.563810552744967</v>
@@ -6072,7 +6072,7 @@
         <v>19.40432594724988</v>
       </c>
       <c r="L24" t="n">
-        <v>42.9948202466733</v>
+        <v>82.99252466833744</v>
       </c>
       <c r="M24" t="n">
         <v>124.2219758368923</v>
@@ -6087,31 +6087,31 @@
         <v>328.1905276372484</v>
       </c>
       <c r="Q24" t="n">
-        <v>328.1905276372484</v>
+        <v>307.2162871896948</v>
       </c>
       <c r="R24" t="n">
-        <v>255.192998156721</v>
+        <v>307.2162871896948</v>
       </c>
       <c r="S24" t="n">
-        <v>172.316602288729</v>
+        <v>307.2162871896948</v>
       </c>
       <c r="T24" t="n">
-        <v>89.44020642073698</v>
+        <v>307.2162871896948</v>
       </c>
       <c r="U24" t="n">
-        <v>6.563810552744967</v>
+        <v>307.2162871896948</v>
       </c>
       <c r="V24" t="n">
-        <v>6.563810552744967</v>
+        <v>224.3398913217027</v>
       </c>
       <c r="W24" t="n">
-        <v>6.563810552744967</v>
+        <v>224.3398913217027</v>
       </c>
       <c r="X24" t="n">
-        <v>6.563810552744967</v>
+        <v>224.3398913217027</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.563810552744967</v>
+        <v>224.3398913217027</v>
       </c>
     </row>
     <row r="25">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>204.478238638898</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="C26" t="n">
-        <v>121.601842770906</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="D26" t="n">
-        <v>121.601842770906</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="E26" t="n">
-        <v>121.601842770906</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="F26" t="n">
-        <v>121.601842770906</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="G26" t="n">
-        <v>121.601842770906</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="H26" t="n">
-        <v>121.601842770906</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="I26" t="n">
-        <v>38.72544690291397</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="J26" t="n">
         <v>6.563810552744967</v>
@@ -6248,28 +6248,28 @@
         <v>287.35463450689</v>
       </c>
       <c r="R26" t="n">
-        <v>287.35463450689</v>
+        <v>204.478238638898</v>
       </c>
       <c r="S26" t="n">
-        <v>287.35463450689</v>
+        <v>121.601842770906</v>
       </c>
       <c r="T26" t="n">
-        <v>204.478238638898</v>
+        <v>38.72544690291397</v>
       </c>
       <c r="U26" t="n">
-        <v>204.478238638898</v>
+        <v>38.72544690291397</v>
       </c>
       <c r="V26" t="n">
-        <v>204.478238638898</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="W26" t="n">
-        <v>204.478238638898</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="X26" t="n">
-        <v>204.478238638898</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="Y26" t="n">
-        <v>204.478238638898</v>
+        <v>6.563810552744967</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.563810552744967</v>
+        <v>240.3638883219201</v>
       </c>
       <c r="C27" t="n">
-        <v>6.563810552744967</v>
+        <v>240.3638883219201</v>
       </c>
       <c r="D27" t="n">
-        <v>6.563810552744967</v>
+        <v>240.3638883219201</v>
       </c>
       <c r="E27" t="n">
-        <v>6.563810552744967</v>
+        <v>240.3638883219201</v>
       </c>
       <c r="F27" t="n">
-        <v>6.563810552744967</v>
+        <v>240.3638883219201</v>
       </c>
       <c r="G27" t="n">
-        <v>6.563810552744967</v>
+        <v>157.4874924539281</v>
       </c>
       <c r="H27" t="n">
-        <v>6.563810552744967</v>
+        <v>74.61109658593608</v>
       </c>
       <c r="I27" t="n">
         <v>6.563810552744967</v>
@@ -6312,10 +6312,10 @@
         <v>82.99252466833744</v>
       </c>
       <c r="M27" t="n">
-        <v>124.2219758368923</v>
+        <v>164.2196802585564</v>
       </c>
       <c r="N27" t="n">
-        <v>205.4491314271112</v>
+        <v>245.4468358487754</v>
       </c>
       <c r="O27" t="n">
         <v>284.2660600430588</v>
@@ -6324,31 +6324,31 @@
         <v>328.1905276372484</v>
       </c>
       <c r="Q27" t="n">
-        <v>328.1905276372484</v>
+        <v>323.2402841899121</v>
       </c>
       <c r="R27" t="n">
-        <v>328.1905276372484</v>
+        <v>323.2402841899121</v>
       </c>
       <c r="S27" t="n">
-        <v>328.1905276372484</v>
+        <v>323.2402841899121</v>
       </c>
       <c r="T27" t="n">
-        <v>245.3141317692563</v>
+        <v>323.2402841899121</v>
       </c>
       <c r="U27" t="n">
-        <v>245.3141317692563</v>
+        <v>323.2402841899121</v>
       </c>
       <c r="V27" t="n">
-        <v>245.3141317692563</v>
+        <v>240.3638883219201</v>
       </c>
       <c r="W27" t="n">
-        <v>162.4377359012643</v>
+        <v>240.3638883219201</v>
       </c>
       <c r="X27" t="n">
-        <v>79.5613400332723</v>
+        <v>240.3638883219201</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.563810552744967</v>
+        <v>240.3638883219201</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="C28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="D28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="E28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="F28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="G28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="H28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="I28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="J28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="K28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="L28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="M28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="N28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="O28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="P28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="Q28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="R28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="S28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="T28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="U28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="V28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="W28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="X28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="Y28" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.39970368310323</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="C29" t="n">
-        <v>47.39970368310323</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="D29" t="n">
-        <v>47.39970368310323</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="E29" t="n">
-        <v>47.39970368310323</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="F29" t="n">
-        <v>47.39970368310323</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="G29" t="n">
-        <v>47.39970368310323</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="H29" t="n">
-        <v>47.39970368310323</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="I29" t="n">
-        <v>47.39970368310323</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="J29" t="n">
-        <v>47.39970368310323</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="K29" t="n">
-        <v>49.32933106814665</v>
+        <v>8.493437937788384</v>
       </c>
       <c r="L29" t="n">
-        <v>88.62496632655746</v>
+        <v>47.78907319619919</v>
       </c>
       <c r="M29" t="n">
-        <v>164.0183694539658</v>
+        <v>123.1824763236075</v>
       </c>
       <c r="N29" t="n">
-        <v>245.2455250441847</v>
+        <v>204.4096319138264</v>
       </c>
       <c r="O29" t="n">
-        <v>308.6107634896243</v>
+        <v>267.7748703592659</v>
       </c>
       <c r="P29" t="n">
-        <v>328.1905276372484</v>
+        <v>287.35463450689</v>
       </c>
       <c r="Q29" t="n">
-        <v>328.1905276372484</v>
+        <v>287.35463450689</v>
       </c>
       <c r="R29" t="n">
-        <v>328.1905276372484</v>
+        <v>287.35463450689</v>
       </c>
       <c r="S29" t="n">
-        <v>328.1905276372484</v>
+        <v>204.478238638898</v>
       </c>
       <c r="T29" t="n">
-        <v>328.1905276372484</v>
+        <v>121.601842770906</v>
       </c>
       <c r="U29" t="n">
-        <v>328.1905276372484</v>
+        <v>38.72544690291397</v>
       </c>
       <c r="V29" t="n">
-        <v>245.3141317692563</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="W29" t="n">
-        <v>162.4377359012643</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="X29" t="n">
-        <v>79.5613400332723</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.39970368310323</v>
+        <v>6.563810552744967</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>323.2402841899121</v>
+        <v>172.316602288729</v>
       </c>
       <c r="C30" t="n">
-        <v>323.2402841899121</v>
+        <v>89.44020642073698</v>
       </c>
       <c r="D30" t="n">
-        <v>323.2402841899121</v>
+        <v>89.44020642073698</v>
       </c>
       <c r="E30" t="n">
-        <v>323.2402841899121</v>
+        <v>89.44020642073698</v>
       </c>
       <c r="F30" t="n">
-        <v>240.3638883219201</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="G30" t="n">
-        <v>157.4874924539281</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="H30" t="n">
-        <v>74.61109658593608</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="I30" t="n">
         <v>6.563810552744967</v>
@@ -6549,10 +6549,10 @@
         <v>82.99252466833744</v>
       </c>
       <c r="M30" t="n">
-        <v>124.2219758368923</v>
+        <v>164.2196802585564</v>
       </c>
       <c r="N30" t="n">
-        <v>205.4491314271112</v>
+        <v>245.4468358487754</v>
       </c>
       <c r="O30" t="n">
         <v>284.2660600430588</v>
@@ -6561,31 +6561,31 @@
         <v>328.1905276372484</v>
       </c>
       <c r="Q30" t="n">
-        <v>328.1905276372484</v>
+        <v>307.2162871896948</v>
       </c>
       <c r="R30" t="n">
-        <v>328.1905276372484</v>
+        <v>307.2162871896948</v>
       </c>
       <c r="S30" t="n">
-        <v>328.1905276372484</v>
+        <v>307.2162871896948</v>
       </c>
       <c r="T30" t="n">
-        <v>323.2402841899121</v>
+        <v>307.2162871896948</v>
       </c>
       <c r="U30" t="n">
-        <v>323.2402841899121</v>
+        <v>307.2162871896948</v>
       </c>
       <c r="V30" t="n">
-        <v>323.2402841899121</v>
+        <v>255.192998156721</v>
       </c>
       <c r="W30" t="n">
-        <v>323.2402841899121</v>
+        <v>255.192998156721</v>
       </c>
       <c r="X30" t="n">
-        <v>323.2402841899121</v>
+        <v>172.316602288729</v>
       </c>
       <c r="Y30" t="n">
-        <v>323.2402841899121</v>
+        <v>172.316602288729</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="C31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="D31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="E31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="F31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="G31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="H31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="I31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="J31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="K31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="L31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="M31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="N31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="O31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="P31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="Q31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="R31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="S31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="T31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="U31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="V31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="W31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="X31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="Y31" t="n">
-        <v>328.1905276372484</v>
+        <v>6.563810552744967</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.44020642073698</v>
+        <v>121.601842770906</v>
       </c>
       <c r="C32" t="n">
-        <v>6.563810552744967</v>
+        <v>121.601842770906</v>
       </c>
       <c r="D32" t="n">
-        <v>6.563810552744967</v>
+        <v>121.601842770906</v>
       </c>
       <c r="E32" t="n">
-        <v>6.563810552744967</v>
+        <v>38.72544690291397</v>
       </c>
       <c r="F32" t="n">
-        <v>6.563810552744967</v>
+        <v>38.72544690291397</v>
       </c>
       <c r="G32" t="n">
-        <v>6.563810552744967</v>
+        <v>38.72544690291397</v>
       </c>
       <c r="H32" t="n">
-        <v>6.563810552744967</v>
+        <v>38.72544690291397</v>
       </c>
       <c r="I32" t="n">
-        <v>6.563810552744967</v>
+        <v>38.72544690291397</v>
       </c>
       <c r="J32" t="n">
         <v>6.563810552744967</v>
@@ -6737,13 +6737,13 @@
         <v>287.35463450689</v>
       </c>
       <c r="W32" t="n">
-        <v>287.35463450689</v>
+        <v>204.478238638898</v>
       </c>
       <c r="X32" t="n">
-        <v>255.192998156721</v>
+        <v>204.478238638898</v>
       </c>
       <c r="Y32" t="n">
-        <v>172.316602288729</v>
+        <v>121.601842770906</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>157.4874924539281</v>
+        <v>245.3141317692563</v>
       </c>
       <c r="C33" t="n">
-        <v>74.61109658593608</v>
+        <v>245.3141317692563</v>
       </c>
       <c r="D33" t="n">
-        <v>74.61109658593608</v>
+        <v>245.3141317692563</v>
       </c>
       <c r="E33" t="n">
-        <v>74.61109658593608</v>
+        <v>172.316602288729</v>
       </c>
       <c r="F33" t="n">
-        <v>74.61109658593608</v>
+        <v>89.44020642073698</v>
       </c>
       <c r="G33" t="n">
-        <v>74.61109658593608</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="H33" t="n">
-        <v>74.61109658593608</v>
+        <v>6.563810552744967</v>
       </c>
       <c r="I33" t="n">
         <v>6.563810552744967</v>
@@ -6786,7 +6786,7 @@
         <v>82.99252466833744</v>
       </c>
       <c r="M33" t="n">
-        <v>124.2219758368923</v>
+        <v>164.2196802585564</v>
       </c>
       <c r="N33" t="n">
         <v>205.4491314271112</v>
@@ -6807,22 +6807,22 @@
         <v>328.1905276372484</v>
       </c>
       <c r="T33" t="n">
+        <v>328.1905276372484</v>
+      </c>
+      <c r="U33" t="n">
+        <v>328.1905276372484</v>
+      </c>
+      <c r="V33" t="n">
+        <v>328.1905276372484</v>
+      </c>
+      <c r="W33" t="n">
         <v>245.3141317692563</v>
       </c>
-      <c r="U33" t="n">
-        <v>162.4377359012643</v>
-      </c>
-      <c r="V33" t="n">
-        <v>157.4874924539281</v>
-      </c>
-      <c r="W33" t="n">
-        <v>157.4874924539281</v>
-      </c>
       <c r="X33" t="n">
-        <v>157.4874924539281</v>
+        <v>245.3141317692563</v>
       </c>
       <c r="Y33" t="n">
-        <v>157.4874924539281</v>
+        <v>245.3141317692563</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="C34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="D34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="E34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="F34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="G34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="H34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="I34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="J34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="K34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="L34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="M34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="N34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="O34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="P34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="R34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="S34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="T34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="U34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="V34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="W34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="X34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.563810552744967</v>
+        <v>328.1905276372484</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>126.8574765390705</v>
+        <v>24.50542534490501</v>
       </c>
       <c r="C35" t="n">
-        <v>58.65414398697209</v>
+        <v>24.50542534490501</v>
       </c>
       <c r="D35" t="n">
-        <v>58.65414398697209</v>
+        <v>24.50542534490501</v>
       </c>
       <c r="E35" t="n">
-        <v>5.401703938126198</v>
+        <v>24.50542534490501</v>
       </c>
       <c r="F35" t="n">
         <v>5.401703938126198</v>
@@ -6956,31 +6956,31 @@
         <v>263.2641416432675</v>
       </c>
       <c r="Q35" t="n">
-        <v>263.2641416432675</v>
+        <v>229.1154230012004</v>
       </c>
       <c r="R35" t="n">
-        <v>263.2641416432675</v>
+        <v>229.1154230012004</v>
       </c>
       <c r="S35" t="n">
-        <v>263.2641416432675</v>
+        <v>229.1154230012004</v>
       </c>
       <c r="T35" t="n">
-        <v>263.2641416432675</v>
+        <v>160.9120904491019</v>
       </c>
       <c r="U35" t="n">
-        <v>263.2641416432675</v>
+        <v>92.70875789700347</v>
       </c>
       <c r="V35" t="n">
-        <v>263.2641416432675</v>
+        <v>92.70875789700347</v>
       </c>
       <c r="W35" t="n">
-        <v>263.2641416432675</v>
+        <v>92.70875789700347</v>
       </c>
       <c r="X35" t="n">
-        <v>195.060809091169</v>
+        <v>92.70875789700347</v>
       </c>
       <c r="Y35" t="n">
-        <v>195.060809091169</v>
+        <v>92.70875789700347</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>73.60503649022466</v>
+        <v>141.6523225234158</v>
       </c>
       <c r="C36" t="n">
-        <v>73.60503649022466</v>
+        <v>141.6523225234158</v>
       </c>
       <c r="D36" t="n">
-        <v>5.401703938126198</v>
+        <v>141.6523225234158</v>
       </c>
       <c r="E36" t="n">
-        <v>5.401703938126198</v>
+        <v>141.6523225234158</v>
       </c>
       <c r="F36" t="n">
-        <v>5.401703938126198</v>
+        <v>141.6523225234158</v>
       </c>
       <c r="G36" t="n">
-        <v>5.401703938126198</v>
+        <v>141.6523225234158</v>
       </c>
       <c r="H36" t="n">
-        <v>5.401703938126198</v>
+        <v>73.44898997131732</v>
       </c>
       <c r="I36" t="n">
         <v>5.401703938126198</v>
@@ -7050,16 +7050,16 @@
         <v>270.0851969063099</v>
       </c>
       <c r="V36" t="n">
-        <v>210.0117015944216</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="W36" t="n">
-        <v>210.0117015944216</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="X36" t="n">
-        <v>210.0117015944216</v>
+        <v>209.8556550755142</v>
       </c>
       <c r="Y36" t="n">
-        <v>141.8083690423231</v>
+        <v>141.6523225234158</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="C37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="D37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="E37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="F37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="G37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="H37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="I37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="J37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="K37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="L37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="M37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="N37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="O37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="P37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="R37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="S37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="T37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="U37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="V37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="W37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="X37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.401703938126198</v>
+        <v>263.2641416432675</v>
       </c>
       <c r="C38" t="n">
-        <v>5.401703938126198</v>
+        <v>263.2641416432675</v>
       </c>
       <c r="D38" t="n">
-        <v>5.401703938126198</v>
+        <v>263.2641416432675</v>
       </c>
       <c r="E38" t="n">
-        <v>5.401703938126198</v>
+        <v>263.2641416432675</v>
       </c>
       <c r="F38" t="n">
-        <v>5.401703938126198</v>
+        <v>243.2395351356615</v>
       </c>
       <c r="G38" t="n">
-        <v>5.401703938126198</v>
+        <v>175.036202583563</v>
       </c>
       <c r="H38" t="n">
-        <v>5.401703938126198</v>
+        <v>106.8328700314646</v>
       </c>
       <c r="I38" t="n">
-        <v>5.401703938126198</v>
+        <v>38.62953747936609</v>
       </c>
       <c r="J38" t="n">
         <v>5.401703938126198</v>
@@ -7196,28 +7196,28 @@
         <v>263.2641416432675</v>
       </c>
       <c r="R38" t="n">
-        <v>195.060809091169</v>
+        <v>263.2641416432675</v>
       </c>
       <c r="S38" t="n">
-        <v>126.8574765390705</v>
+        <v>263.2641416432675</v>
       </c>
       <c r="T38" t="n">
-        <v>126.8574765390705</v>
+        <v>263.2641416432675</v>
       </c>
       <c r="U38" t="n">
-        <v>58.65414398697209</v>
+        <v>263.2641416432675</v>
       </c>
       <c r="V38" t="n">
-        <v>5.401703938126198</v>
+        <v>263.2641416432675</v>
       </c>
       <c r="W38" t="n">
-        <v>5.401703938126198</v>
+        <v>263.2641416432675</v>
       </c>
       <c r="X38" t="n">
-        <v>5.401703938126198</v>
+        <v>263.2641416432675</v>
       </c>
       <c r="Y38" t="n">
-        <v>5.401703938126198</v>
+        <v>263.2641416432675</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73.60503649022466</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="C39" t="n">
-        <v>73.60503649022466</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="D39" t="n">
-        <v>73.60503649022466</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="E39" t="n">
-        <v>73.60503649022466</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="F39" t="n">
         <v>5.401703938126198</v>
@@ -7254,16 +7254,16 @@
         <v>5.401703938126198</v>
       </c>
       <c r="K39" t="n">
-        <v>18.24221933263111</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="L39" t="n">
-        <v>81.83041805371867</v>
+        <v>68.98990265921375</v>
       </c>
       <c r="M39" t="n">
-        <v>148.6765042880304</v>
+        <v>135.8359888935254</v>
       </c>
       <c r="N39" t="n">
-        <v>215.5225905223421</v>
+        <v>159.3146430778086</v>
       </c>
       <c r="O39" t="n">
         <v>226.1607293121203</v>
@@ -7278,25 +7278,25 @@
         <v>270.0851969063099</v>
       </c>
       <c r="S39" t="n">
-        <v>270.0851969063099</v>
+        <v>210.0117015944216</v>
       </c>
       <c r="T39" t="n">
-        <v>270.0851969063099</v>
+        <v>141.8083690423231</v>
       </c>
       <c r="U39" t="n">
-        <v>270.0851969063099</v>
+        <v>73.60503649022466</v>
       </c>
       <c r="V39" t="n">
-        <v>270.0851969063099</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="W39" t="n">
-        <v>210.0117015944216</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="X39" t="n">
-        <v>141.8083690423231</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="Y39" t="n">
-        <v>73.60503649022466</v>
+        <v>5.401703938126198</v>
       </c>
     </row>
     <row r="40">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.9120904491019</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="C41" t="n">
-        <v>92.70875789700347</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="D41" t="n">
-        <v>24.50542534490501</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="E41" t="n">
-        <v>24.50542534490501</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="F41" t="n">
-        <v>24.50542534490501</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="G41" t="n">
-        <v>24.50542534490501</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="H41" t="n">
-        <v>24.50542534490501</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="I41" t="n">
         <v>5.401703938126198</v>
@@ -7430,31 +7430,31 @@
         <v>263.2641416432675</v>
       </c>
       <c r="Q41" t="n">
-        <v>229.1154230012004</v>
+        <v>263.2641416432675</v>
       </c>
       <c r="R41" t="n">
-        <v>229.1154230012004</v>
+        <v>263.2641416432675</v>
       </c>
       <c r="S41" t="n">
-        <v>229.1154230012004</v>
+        <v>263.2641416432675</v>
       </c>
       <c r="T41" t="n">
-        <v>229.1154230012004</v>
+        <v>210.0117015944216</v>
       </c>
       <c r="U41" t="n">
-        <v>229.1154230012004</v>
+        <v>141.8083690423231</v>
       </c>
       <c r="V41" t="n">
-        <v>229.1154230012004</v>
+        <v>73.60503649022466</v>
       </c>
       <c r="W41" t="n">
-        <v>229.1154230012004</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="X41" t="n">
-        <v>229.1154230012004</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.1154230012004</v>
+        <v>5.401703938126198</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7491,16 @@
         <v>5.401703938126198</v>
       </c>
       <c r="K42" t="n">
-        <v>18.24221933263111</v>
+        <v>5.401703938126198</v>
       </c>
       <c r="L42" t="n">
-        <v>81.83041805371867</v>
+        <v>68.98990265921375</v>
       </c>
       <c r="M42" t="n">
-        <v>148.6765042880304</v>
+        <v>92.46855684349687</v>
       </c>
       <c r="N42" t="n">
-        <v>215.5225905223421</v>
+        <v>159.3146430778086</v>
       </c>
       <c r="O42" t="n">
         <v>226.1607293121203</v>
@@ -7518,19 +7518,19 @@
         <v>270.0851969063099</v>
       </c>
       <c r="T42" t="n">
+        <v>270.0851969063099</v>
+      </c>
+      <c r="U42" t="n">
         <v>201.8818643542114</v>
       </c>
-      <c r="U42" t="n">
-        <v>133.678531802113</v>
-      </c>
       <c r="V42" t="n">
-        <v>65.4751992500145</v>
+        <v>201.8818643542114</v>
       </c>
       <c r="W42" t="n">
-        <v>65.4751992500145</v>
+        <v>141.8083690423231</v>
       </c>
       <c r="X42" t="n">
-        <v>65.4751992500145</v>
+        <v>73.60503649022466</v>
       </c>
       <c r="Y42" t="n">
         <v>5.401703938126198</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="C43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="D43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="E43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="F43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="G43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="H43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="I43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="J43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="K43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="L43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="M43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="N43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="O43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="P43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="R43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="S43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="T43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="U43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="V43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="W43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="X43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.401703938126198</v>
+        <v>270.0851969063099</v>
       </c>
     </row>
     <row r="44">
@@ -7655,13 +7655,13 @@
         <v>45.65499367798699</v>
       </c>
       <c r="M44" t="n">
-        <v>92.2709444743282</v>
+        <v>100.4729152303299</v>
       </c>
       <c r="N44" t="n">
-        <v>147.0888660266712</v>
+        <v>155.2908367826729</v>
       </c>
       <c r="O44" t="n">
-        <v>201.9067875790141</v>
+        <v>210.1087583350159</v>
       </c>
       <c r="P44" t="n">
         <v>221.4865517266382</v>
@@ -7670,25 +7670,25 @@
         <v>221.4865517266382</v>
       </c>
       <c r="R44" t="n">
-        <v>165.5556043209215</v>
+        <v>221.4865517266382</v>
       </c>
       <c r="S44" t="n">
-        <v>165.5556043209215</v>
+        <v>221.4865517266382</v>
       </c>
       <c r="T44" t="n">
-        <v>165.5556043209215</v>
+        <v>221.4865517266382</v>
       </c>
       <c r="U44" t="n">
         <v>165.5556043209215</v>
       </c>
       <c r="V44" t="n">
+        <v>165.5556043209215</v>
+      </c>
+      <c r="W44" t="n">
         <v>109.6246569152048</v>
       </c>
-      <c r="W44" t="n">
+      <c r="X44" t="n">
         <v>53.69370950948803</v>
-      </c>
-      <c r="X44" t="n">
-        <v>4.429731034532764</v>
       </c>
       <c r="Y44" t="n">
         <v>4.429731034532764</v>
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.429731034532764</v>
+        <v>60.36067844024949</v>
       </c>
       <c r="C45" t="n">
-        <v>4.429731034532764</v>
+        <v>60.36067844024949</v>
       </c>
       <c r="D45" t="n">
         <v>4.429731034532764</v>
@@ -7728,34 +7728,34 @@
         <v>4.429731034532764</v>
       </c>
       <c r="K45" t="n">
-        <v>17.27024642903768</v>
+        <v>4.429731034532764</v>
       </c>
       <c r="L45" t="n">
-        <v>17.27024642903768</v>
+        <v>59.24765258687572</v>
       </c>
       <c r="M45" t="n">
-        <v>67.9262410277627</v>
+        <v>111.8507086219523</v>
       </c>
       <c r="N45" t="n">
-        <v>122.7441625801057</v>
+        <v>166.6686301742952</v>
       </c>
       <c r="O45" t="n">
-        <v>177.5620841324486</v>
+        <v>221.4865517266382</v>
       </c>
       <c r="P45" t="n">
         <v>221.4865517266382</v>
       </c>
       <c r="Q45" t="n">
-        <v>221.4865517266382</v>
+        <v>200.5123112790846</v>
       </c>
       <c r="R45" t="n">
+        <v>200.5123112790846</v>
+      </c>
+      <c r="S45" t="n">
+        <v>200.5123112790846</v>
+      </c>
+      <c r="T45" t="n">
         <v>172.2225732516829</v>
-      </c>
-      <c r="S45" t="n">
-        <v>116.2916258459662</v>
-      </c>
-      <c r="T45" t="n">
-        <v>116.2916258459662</v>
       </c>
       <c r="U45" t="n">
         <v>116.2916258459662</v>
@@ -7770,7 +7770,7 @@
         <v>60.36067844024949</v>
       </c>
       <c r="Y45" t="n">
-        <v>4.429731034532764</v>
+        <v>60.36067844024949</v>
       </c>
     </row>
     <row r="46">
@@ -23255,31 +23255,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>326.3579810344471</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>290.6777502616532</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>383.3957403185055</v>
       </c>
       <c r="G11" t="n">
-        <v>413.5571995917977</v>
+        <v>349.5519082327678</v>
       </c>
       <c r="H11" t="n">
-        <v>321.5983118583879</v>
+        <v>257.5930204993581</v>
       </c>
       <c r="I11" t="n">
-        <v>143.1810387809403</v>
+        <v>79.17574742191047</v>
       </c>
       <c r="J11" t="n">
-        <v>32.89555520582749</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>305.7258093194392</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>322.2326472970237</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23343,19 +23343,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>93.63978909637112</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>81.06392103435405</v>
+        <v>127.293645307012</v>
       </c>
       <c r="G12" t="n">
-        <v>136.4095720375306</v>
+        <v>72.40428067850078</v>
       </c>
       <c r="H12" t="n">
         <v>39.2102091636623</v>
       </c>
       <c r="I12" t="n">
-        <v>49.59124608648733</v>
+        <v>3.36152181382937</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>342.8707543826816</v>
+        <v>383.3957403185055</v>
       </c>
       <c r="G14" t="n">
         <v>349.5519082327678</v>
@@ -23513,10 +23513,10 @@
         <v>257.593020499358</v>
       </c>
       <c r="I14" t="n">
-        <v>86.80517815190683</v>
+        <v>79.17574742191043</v>
       </c>
       <c r="J14" t="n">
-        <v>32.89555520582749</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23577,13 +23577,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>129.6694984782669</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>81.06392103435401</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>72.40428067850074</v>
@@ -23592,7 +23592,7 @@
         <v>39.21020916366226</v>
       </c>
       <c r="I15" t="n">
-        <v>49.5912460864873</v>
+        <v>3.361521813829327</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23747,13 +23747,13 @@
         <v>413.5571995917977</v>
       </c>
       <c r="H17" t="n">
-        <v>321.5983118583879</v>
+        <v>298.1180064351819</v>
       </c>
       <c r="I17" t="n">
         <v>143.1810387809403</v>
       </c>
       <c r="J17" t="n">
-        <v>32.89555520582749</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,22 +23777,22 @@
         <v>33.80723145564642</v>
       </c>
       <c r="R17" t="n">
-        <v>105.9373912372883</v>
+        <v>41.93209987825847</v>
       </c>
       <c r="S17" t="n">
-        <v>169.243624158194</v>
+        <v>105.2383327991642</v>
       </c>
       <c r="T17" t="n">
-        <v>151.4494659456919</v>
+        <v>215.4547573047218</v>
       </c>
       <c r="U17" t="n">
-        <v>187.2007185149396</v>
+        <v>251.2060098739695</v>
       </c>
       <c r="V17" t="n">
         <v>263.7469671111051</v>
       </c>
       <c r="W17" t="n">
-        <v>292.8651080883795</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23823,16 +23823,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.4095720375306</v>
+        <v>72.40428067850074</v>
       </c>
       <c r="H18" t="n">
-        <v>103.2155005226921</v>
+        <v>39.21020916366226</v>
       </c>
       <c r="I18" t="n">
-        <v>67.3668131728592</v>
+        <v>3.361521813829327</v>
       </c>
       <c r="J18" t="n">
-        <v>38.60029354266159</v>
+        <v>2.988930956706199</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.68768980174869</v>
+        <v>87.69298116077856</v>
       </c>
       <c r="S18" t="n">
-        <v>90.33025866035685</v>
+        <v>154.3355500193867</v>
       </c>
       <c r="T18" t="n">
-        <v>132.3949830792131</v>
+        <v>196.4002744382429</v>
       </c>
       <c r="U18" t="n">
-        <v>190.268575736751</v>
+        <v>225.8799383227064</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>306.5788890095328</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>289.1179391170598</v>
       </c>
       <c r="D20" t="n">
-        <v>310.9403988061053</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>33.80723145564642</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>105.9373912372883</v>
@@ -24020,7 +24020,7 @@
         <v>169.243624158194</v>
       </c>
       <c r="T20" t="n">
-        <v>215.4547573047218</v>
+        <v>139.299804650774</v>
       </c>
       <c r="U20" t="n">
         <v>251.2060098739695</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>273.0860160634652</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>359.7956893195378</v>
       </c>
       <c r="Y20" t="n">
-        <v>310.0829860021058</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,7 +24054,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>81.49012780145316</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24066,7 +24066,7 @@
         <v>103.2155005226921</v>
       </c>
       <c r="I21" t="n">
-        <v>67.3668131728592</v>
+        <v>0.2895308752620167</v>
       </c>
       <c r="J21" t="n">
         <v>38.60029354266159</v>
@@ -24090,19 +24090,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>20.76449804307808</v>
       </c>
       <c r="R21" t="n">
         <v>87.69298116077856</v>
       </c>
       <c r="S21" t="n">
-        <v>154.3355500193867</v>
+        <v>78.18059736543893</v>
       </c>
       <c r="T21" t="n">
-        <v>196.4002744382429</v>
+        <v>120.2453217842952</v>
       </c>
       <c r="U21" t="n">
-        <v>149.7249856687586</v>
+        <v>225.8799383227064</v>
       </c>
       <c r="V21" t="n">
         <v>156.6456344954775</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>159.3699115227852</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.6862097541685</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>350.0903500855945</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>324.8284138323993</v>
       </c>
       <c r="G23" t="n">
-        <v>413.5571995917977</v>
+        <v>331.5095676824856</v>
       </c>
       <c r="H23" t="n">
-        <v>321.5983118583879</v>
+        <v>239.5506799490758</v>
       </c>
       <c r="I23" t="n">
         <v>143.1810387809403</v>
@@ -24248,13 +24248,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.967211468979105</v>
+        <v>33.80723145564642</v>
       </c>
       <c r="R23" t="n">
-        <v>23.88975932797625</v>
+        <v>105.9373912372883</v>
       </c>
       <c r="S23" t="n">
-        <v>87.19599224888194</v>
+        <v>169.243624158194</v>
       </c>
       <c r="T23" t="n">
         <v>215.4547573047218</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>115.0301275072233</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>90.66086707900365</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>65.39743365532667</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24327,22 +24327,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.76449804307808</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>15.4254269750565</v>
+        <v>87.69298116077856</v>
       </c>
       <c r="S24" t="n">
-        <v>72.28791811007463</v>
+        <v>154.3355500193867</v>
       </c>
       <c r="T24" t="n">
-        <v>114.3526425289309</v>
+        <v>196.4002744382429</v>
       </c>
       <c r="U24" t="n">
-        <v>143.8323064133943</v>
+        <v>225.8799383227064</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>150.7529552401132</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>283.2252598616955</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24461,10 +24461,10 @@
         <v>321.5983118583879</v>
       </c>
       <c r="I26" t="n">
-        <v>61.13340687162821</v>
+        <v>143.1810387809403</v>
       </c>
       <c r="J26" t="n">
-        <v>1.055535219160181</v>
+        <v>32.89555520582749</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,10 +24488,10 @@
         <v>33.80723145564642</v>
       </c>
       <c r="R26" t="n">
-        <v>105.9373912372883</v>
+        <v>23.88975932797625</v>
       </c>
       <c r="S26" t="n">
-        <v>169.243624158194</v>
+        <v>87.19599224888194</v>
       </c>
       <c r="T26" t="n">
         <v>133.4071253954097</v>
@@ -24500,7 +24500,7 @@
         <v>251.2060098739695</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>295.9122384834676</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24534,13 +24534,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.4095720375306</v>
+        <v>54.36194012821852</v>
       </c>
       <c r="H27" t="n">
-        <v>103.2155005226921</v>
+        <v>21.16786861338004</v>
       </c>
       <c r="I27" t="n">
-        <v>67.3668131728592</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>38.60029354266159</v>
@@ -24564,7 +24564,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.76449804307808</v>
+        <v>15.86375703021522</v>
       </c>
       <c r="R27" t="n">
         <v>87.69298116077856</v>
@@ -24573,22 +24573,22 @@
         <v>154.3355500193867</v>
       </c>
       <c r="T27" t="n">
-        <v>114.3526425289309</v>
+        <v>196.4002744382429</v>
       </c>
       <c r="U27" t="n">
         <v>225.8799383227064</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>150.7529552401132</v>
       </c>
       <c r="W27" t="n">
-        <v>169.6473512516075</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>123.7253532941654</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>133.4151415915823</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24728,25 +24728,25 @@
         <v>105.9373912372883</v>
       </c>
       <c r="S29" t="n">
-        <v>169.243624158194</v>
+        <v>87.19599224888194</v>
       </c>
       <c r="T29" t="n">
-        <v>215.4547573047218</v>
+        <v>133.4071253954097</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2060098739695</v>
+        <v>169.1583779646574</v>
       </c>
       <c r="V29" t="n">
-        <v>245.7046265608228</v>
+        <v>295.9122384834676</v>
       </c>
       <c r="W29" t="n">
-        <v>267.1933368081009</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>287.6834687691569</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.3979186693862</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>90.66086707900365</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,13 +24771,13 @@
         <v>63.02158048407179</v>
       </c>
       <c r="G30" t="n">
-        <v>54.36194012821852</v>
+        <v>136.4095720375306</v>
       </c>
       <c r="H30" t="n">
-        <v>21.16786861338004</v>
+        <v>103.2155005226921</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.3668131728592</v>
       </c>
       <c r="J30" t="n">
         <v>38.60029354266159</v>
@@ -24801,7 +24801,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.76449804307808</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>87.69298116077856</v>
@@ -24810,19 +24810,19 @@
         <v>154.3355500193867</v>
       </c>
       <c r="T30" t="n">
-        <v>191.4995334253801</v>
+        <v>196.4002744382429</v>
       </c>
       <c r="U30" t="n">
         <v>225.8799383227064</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>181.2975310067813</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>123.7253532941654</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>300.6862097541685</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>283.2252598616955</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>299.8827381629497</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24938,7 +24938,7 @@
         <v>143.1810387809403</v>
       </c>
       <c r="J32" t="n">
-        <v>32.89555520582749</v>
+        <v>1.055535219160181</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24977,10 +24977,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>267.1933368081009</v>
       </c>
       <c r="X32" t="n">
-        <v>337.8910806918017</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>304.1903067467415</v>
@@ -24996,25 +24996,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>90.66086707900365</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>85.37752626967888</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>63.02158048407179</v>
       </c>
       <c r="G33" t="n">
-        <v>136.4095720375306</v>
+        <v>54.36194012821852</v>
       </c>
       <c r="H33" t="n">
         <v>103.2155005226921</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.3668131728592</v>
       </c>
       <c r="J33" t="n">
         <v>38.60029354266159</v>
@@ -25047,16 +25047,16 @@
         <v>154.3355500193867</v>
       </c>
       <c r="T33" t="n">
-        <v>114.3526425289309</v>
+        <v>196.4002744382429</v>
       </c>
       <c r="U33" t="n">
-        <v>143.8323064133943</v>
+        <v>225.8799383227064</v>
       </c>
       <c r="V33" t="n">
-        <v>227.8998461365624</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>169.6473512516075</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25154,16 +25154,16 @@
         <v>315.2125424369031</v>
       </c>
       <c r="C35" t="n">
-        <v>297.7515925444301</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>329.2104544239044</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>387.9633615490004</v>
       </c>
       <c r="G35" t="n">
         <v>413.5571995917977</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>33.80723145564642</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>105.9373912372883</v>
@@ -25205,10 +25205,10 @@
         <v>169.243624158194</v>
       </c>
       <c r="T35" t="n">
-        <v>215.4547573047218</v>
+        <v>147.9334580781444</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2060098739695</v>
+        <v>183.684710647392</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>302.2098014518916</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99.01188442328987</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>79.92376633806128</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25248,10 +25248,10 @@
         <v>136.4095720375306</v>
       </c>
       <c r="H36" t="n">
-        <v>103.2155005226921</v>
+        <v>35.69420129611466</v>
       </c>
       <c r="I36" t="n">
-        <v>67.3668131728592</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>38.60029354266159</v>
@@ -25290,13 +25290,13 @@
         <v>225.8799383227064</v>
       </c>
       <c r="V36" t="n">
-        <v>173.3278267906559</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>146.1457387909898</v>
       </c>
       <c r="Y36" t="n">
         <v>138.1613965507269</v>
@@ -25400,19 +25400,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>387.0516852991815</v>
       </c>
       <c r="G38" t="n">
-        <v>413.5571995917977</v>
+        <v>346.0359003652202</v>
       </c>
       <c r="H38" t="n">
-        <v>321.5983118583879</v>
+        <v>254.0770126318104</v>
       </c>
       <c r="I38" t="n">
-        <v>143.1810387809403</v>
+        <v>75.65973955436283</v>
       </c>
       <c r="J38" t="n">
-        <v>32.89555520582749</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,19 +25436,19 @@
         <v>33.80723145564642</v>
       </c>
       <c r="R38" t="n">
-        <v>38.41609201071087</v>
+        <v>105.9373912372883</v>
       </c>
       <c r="S38" t="n">
-        <v>101.7223249316166</v>
+        <v>169.243624158194</v>
       </c>
       <c r="T38" t="n">
         <v>215.4547573047218</v>
       </c>
       <c r="U38" t="n">
-        <v>183.684710647392</v>
+        <v>251.2060098739695</v>
       </c>
       <c r="V38" t="n">
-        <v>275.0323428217775</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25479,7 +25479,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>77.54791316680641</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.4095720375306</v>
@@ -25518,25 +25518,25 @@
         <v>87.69298116077856</v>
       </c>
       <c r="S39" t="n">
-        <v>154.3355500193867</v>
+        <v>94.86278966061732</v>
       </c>
       <c r="T39" t="n">
-        <v>196.4002744382429</v>
+        <v>128.8789752116655</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8799383227064</v>
+        <v>158.3586390961289</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>165.2792879228478</v>
       </c>
       <c r="W39" t="n">
-        <v>192.2222228021502</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>138.2516859769</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>138.1613965507269</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>315.2125424369031</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>297.7515925444301</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>287.1617423941055</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25646,7 +25646,7 @@
         <v>321.5983118583879</v>
       </c>
       <c r="I41" t="n">
-        <v>124.2683545882293</v>
+        <v>143.1810387809403</v>
       </c>
       <c r="J41" t="n">
         <v>32.89555520582749</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>33.80723145564642</v>
       </c>
       <c r="R41" t="n">
         <v>105.9373912372883</v>
@@ -25679,16 +25679,16 @@
         <v>169.243624158194</v>
       </c>
       <c r="T41" t="n">
-        <v>215.4547573047218</v>
+        <v>162.7348416563644</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2060098739695</v>
+        <v>183.684710647392</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>260.2309592435574</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>281.7196694908355</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25758,22 +25758,22 @@
         <v>154.3355500193867</v>
       </c>
       <c r="T42" t="n">
-        <v>128.8789752116655</v>
+        <v>196.4002744382429</v>
       </c>
       <c r="U42" t="n">
         <v>158.3586390961289</v>
       </c>
       <c r="V42" t="n">
-        <v>165.2792879228478</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>192.2222228021502</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>138.2516859769</v>
       </c>
       <c r="Y42" t="n">
-        <v>146.2099354185349</v>
+        <v>138.1613965507269</v>
       </c>
     </row>
     <row r="43">
@@ -25910,7 +25910,7 @@
         <v>33.80723145564642</v>
       </c>
       <c r="R44" t="n">
-        <v>50.56575330562879</v>
+        <v>105.9373912372883</v>
       </c>
       <c r="S44" t="n">
         <v>169.243624158194</v>
@@ -25919,19 +25919,19 @@
         <v>215.4547573047218</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2060098739695</v>
+        <v>195.8343719423099</v>
       </c>
       <c r="V44" t="n">
-        <v>272.3806205384753</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>293.8693307857534</v>
       </c>
       <c r="X44" t="n">
-        <v>320.9597619882633</v>
+        <v>314.3594627468095</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>337.4665999658479</v>
       </c>
     </row>
     <row r="45">
@@ -25947,7 +25947,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>92.0734276329792</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25986,19 +25986,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.76449804307808</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>38.92164247057286</v>
+        <v>87.69298116077856</v>
       </c>
       <c r="S45" t="n">
-        <v>98.96391208772717</v>
+        <v>154.3355500193867</v>
       </c>
       <c r="T45" t="n">
-        <v>196.4002744382429</v>
+        <v>168.3934337911153</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8799383227064</v>
+        <v>170.5083003910469</v>
       </c>
       <c r="V45" t="n">
         <v>177.4289492177657</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>150.3110578456448</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>332871.3780549247</v>
+        <v>332871.3780549248</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>332871.3780549247</v>
+        <v>332871.3780549248</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>327520.0789649463</v>
+        <v>327520.0789649464</v>
       </c>
     </row>
     <row r="15">
@@ -26314,10 +26314,10 @@
         <v>90569.74059800305</v>
       </c>
       <c r="C2" t="n">
-        <v>91976.24205358137</v>
+        <v>91976.24205358136</v>
       </c>
       <c r="D2" t="n">
-        <v>92005.36155464702</v>
+        <v>92005.36155464705</v>
       </c>
       <c r="E2" t="n">
         <v>121481.8860716634</v>
@@ -26326,7 +26326,7 @@
         <v>121481.8860716634</v>
       </c>
       <c r="G2" t="n">
-        <v>121481.8860716633</v>
+        <v>121481.8860716634</v>
       </c>
       <c r="H2" t="n">
         <v>123331.9693546252</v>
@@ -26427,7 +26427,7 @@
         <v>46.37862202960973</v>
       </c>
       <c r="F4" t="n">
-        <v>46.37862202960975</v>
+        <v>46.37862202960976</v>
       </c>
       <c r="G4" t="n">
         <v>46.37862202960975</v>
@@ -26436,22 +26436,22 @@
         <v>52.33961403245087</v>
       </c>
       <c r="I4" t="n">
+        <v>54.52715513808013</v>
+      </c>
+      <c r="J4" t="n">
+        <v>54.52715513808015</v>
+      </c>
+      <c r="K4" t="n">
+        <v>54.52715513808015</v>
+      </c>
+      <c r="L4" t="n">
         <v>54.52715513808014</v>
-      </c>
-      <c r="J4" t="n">
-        <v>54.52715513808013</v>
-      </c>
-      <c r="K4" t="n">
-        <v>54.52715513808013</v>
-      </c>
-      <c r="L4" t="n">
-        <v>54.52715513808013</v>
       </c>
       <c r="M4" t="n">
         <v>48.10368203512155</v>
       </c>
       <c r="N4" t="n">
-        <v>48.10368203512156</v>
+        <v>48.10368203512155</v>
       </c>
       <c r="O4" t="n">
         <v>48.10368203512155</v>
@@ -26522,10 +26522,10 @@
         <v>-258213.8457858086</v>
       </c>
       <c r="C6" t="n">
-        <v>45446.26371131556</v>
+        <v>45446.26371131554</v>
       </c>
       <c r="D6" t="n">
-        <v>51146.87035008577</v>
+        <v>51146.8703500858</v>
       </c>
       <c r="E6" t="n">
         <v>2293.2031878452</v>
@@ -26537,16 +26537,16 @@
         <v>108078.3699612268</v>
       </c>
       <c r="H6" t="n">
-        <v>105905.7048811342</v>
+        <v>105905.7048811343</v>
       </c>
       <c r="I6" t="n">
         <v>107935.2794406058</v>
       </c>
       <c r="J6" t="n">
-        <v>109502.2666008715</v>
+        <v>109502.2666008716</v>
       </c>
       <c r="K6" t="n">
-        <v>109502.2666008715</v>
+        <v>109502.2666008716</v>
       </c>
       <c r="L6" t="n">
         <v>109502.2666008716</v>
@@ -31844,10 +31844,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>202.559671138904</v>
+        <v>155.6054496757214</v>
       </c>
       <c r="M12" t="n">
-        <v>159.1851038178655</v>
+        <v>206.1393252810481</v>
       </c>
       <c r="N12" t="n">
         <v>195.3470034423631</v>
@@ -32078,10 +32078,10 @@
         <v>88.2373331240051</v>
       </c>
       <c r="K15" t="n">
-        <v>150.811656544566</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>202.559671138904</v>
+        <v>155.6054496757215</v>
       </c>
       <c r="M15" t="n">
         <v>206.1393252810482</v>
@@ -32090,7 +32090,7 @@
         <v>195.3470034423632</v>
       </c>
       <c r="O15" t="n">
-        <v>146.6770967700847</v>
+        <v>206.6015358034743</v>
       </c>
       <c r="P15" t="n">
         <v>178.3425564993702</v>
@@ -32315,13 +32315,13 @@
         <v>88.2373331240051</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>150.811656544566</v>
       </c>
       <c r="L18" t="n">
-        <v>155.6054496757215</v>
+        <v>202.559671138904</v>
       </c>
       <c r="M18" t="n">
-        <v>206.1393252810482</v>
+        <v>146.2148862476586</v>
       </c>
       <c r="N18" t="n">
         <v>195.3470034423632</v>
@@ -32555,10 +32555,10 @@
         <v>150.811656544566</v>
       </c>
       <c r="L21" t="n">
-        <v>202.7848835385485</v>
+        <v>154.2939979945771</v>
       </c>
       <c r="M21" t="n">
-        <v>214.1662501170347</v>
+        <v>218.2889865759661</v>
       </c>
       <c r="N21" t="n">
         <v>207.4966647372811</v>
@@ -32567,7 +32567,7 @@
         <v>218.7511970983922</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>178.3425564993702</v>
       </c>
       <c r="Q21" t="n">
         <v>119.2172760429434</v>
@@ -32792,10 +32792,10 @@
         <v>150.811656544566</v>
       </c>
       <c r="L24" t="n">
-        <v>162.3831619005039</v>
+        <v>202.7848835385485</v>
       </c>
       <c r="M24" t="n">
-        <v>224.1816658313304</v>
+        <v>183.7799441932858</v>
       </c>
       <c r="N24" t="n">
         <v>213.3893439926454</v>
@@ -33032,13 +33032,13 @@
         <v>202.7848835385485</v>
       </c>
       <c r="M27" t="n">
-        <v>183.7799441932858</v>
+        <v>224.1816658313304</v>
       </c>
       <c r="N27" t="n">
         <v>213.3893439926454</v>
       </c>
       <c r="O27" t="n">
-        <v>222.2093036524722</v>
+        <v>181.8075820144277</v>
       </c>
       <c r="P27" t="n">
         <v>178.3425564993702</v>
@@ -33269,13 +33269,13 @@
         <v>202.7848835385485</v>
       </c>
       <c r="M30" t="n">
-        <v>183.7799441932858</v>
+        <v>224.1816658313304</v>
       </c>
       <c r="N30" t="n">
         <v>213.3893439926454</v>
       </c>
       <c r="O30" t="n">
-        <v>222.2093036524722</v>
+        <v>181.8075820144277</v>
       </c>
       <c r="P30" t="n">
         <v>178.3425564993702</v>
@@ -33506,10 +33506,10 @@
         <v>202.7848835385485</v>
       </c>
       <c r="M33" t="n">
-        <v>183.7799441932858</v>
+        <v>224.1816658313304</v>
       </c>
       <c r="N33" t="n">
-        <v>213.3893439926454</v>
+        <v>172.9876223546008</v>
       </c>
       <c r="O33" t="n">
         <v>222.2093036524722</v>
@@ -33974,7 +33974,7 @@
         <v>88.2373331240051</v>
       </c>
       <c r="K39" t="n">
-        <v>150.811656544566</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>202.7848835385485</v>
@@ -33983,10 +33983,10 @@
         <v>209.6553331485958</v>
       </c>
       <c r="N39" t="n">
-        <v>198.8630113099108</v>
+        <v>155.05752439069</v>
       </c>
       <c r="O39" t="n">
-        <v>153.3418391815942</v>
+        <v>210.1175436710219</v>
       </c>
       <c r="P39" t="n">
         <v>178.3425564993702</v>
@@ -34211,19 +34211,19 @@
         <v>88.2373331240051</v>
       </c>
       <c r="K42" t="n">
-        <v>150.811656544566</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>202.7848835385485</v>
       </c>
       <c r="M42" t="n">
-        <v>209.6553331485958</v>
+        <v>165.849846229375</v>
       </c>
       <c r="N42" t="n">
         <v>198.8630113099108</v>
       </c>
       <c r="O42" t="n">
-        <v>153.3418391815942</v>
+        <v>210.1175436710219</v>
       </c>
       <c r="P42" t="n">
         <v>178.3425564993702</v>
@@ -34375,7 +34375,7 @@
         <v>275.4589758370689</v>
       </c>
       <c r="M44" t="n">
-        <v>277.433052213476</v>
+        <v>285.7178711589323</v>
       </c>
       <c r="N44" t="n">
         <v>284.7847015282505</v>
@@ -34384,7 +34384,7 @@
         <v>285.4698493533463</v>
       </c>
       <c r="P44" t="n">
-        <v>251.0105352983242</v>
+        <v>242.7257163528679</v>
       </c>
       <c r="Q44" t="n">
         <v>188.4984584188031</v>
@@ -34448,13 +34448,13 @@
         <v>88.2373331240051</v>
       </c>
       <c r="K45" t="n">
-        <v>150.811656544566</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>193.9260177115337</v>
       </c>
       <c r="M45" t="n">
-        <v>193.3017052338618</v>
+        <v>195.2684339574492</v>
       </c>
       <c r="N45" t="n">
         <v>186.7133500149928</v>
@@ -34463,7 +34463,7 @@
         <v>197.967882376104</v>
       </c>
       <c r="P45" t="n">
-        <v>178.3425564993702</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>119.2172760429434</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>17.05106989584721</v>
+      </c>
+      <c r="M12" t="n">
         <v>64.00529135902983</v>
-      </c>
-      <c r="M12" t="n">
-        <v>17.05106989584721</v>
       </c>
       <c r="N12" t="n">
         <v>64.00529135902983</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>12.97021757020698</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>64.00529135902987</v>
+        <v>17.05106989584728</v>
       </c>
       <c r="M15" t="n">
         <v>64.00529135902987</v>
@@ -35738,7 +35738,7 @@
         <v>64.00529135902987</v>
       </c>
       <c r="O15" t="n">
-        <v>4.08085232564028</v>
+        <v>64.00529135902987</v>
       </c>
       <c r="P15" t="n">
         <v>44.36814908503999</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>12.97021757020698</v>
       </c>
       <c r="L18" t="n">
-        <v>17.05106989584728</v>
+        <v>64.00529135902987</v>
       </c>
       <c r="M18" t="n">
-        <v>64.00529135902987</v>
+        <v>4.080852325640294</v>
       </c>
       <c r="N18" t="n">
         <v>64.00529135902987</v>
@@ -36203,10 +36203,10 @@
         <v>12.97021757020698</v>
       </c>
       <c r="L21" t="n">
-        <v>64.2305037586743</v>
+        <v>15.73961821470293</v>
       </c>
       <c r="M21" t="n">
-        <v>72.0322161950164</v>
+        <v>76.15495265394779</v>
       </c>
       <c r="N21" t="n">
         <v>76.15495265394779</v>
@@ -36215,7 +36215,7 @@
         <v>76.15495265394779</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>44.36814908503999</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>12.97021757020698</v>
       </c>
       <c r="L24" t="n">
-        <v>23.82878212062972</v>
+        <v>64.2305037586743</v>
       </c>
       <c r="M24" t="n">
-        <v>82.04763190931209</v>
+        <v>41.64591027126751</v>
       </c>
       <c r="N24" t="n">
         <v>82.04763190931209</v>
@@ -36680,13 +36680,13 @@
         <v>64.2305037586743</v>
       </c>
       <c r="M27" t="n">
-        <v>41.64591027126751</v>
+        <v>82.04763190931209</v>
       </c>
       <c r="N27" t="n">
         <v>82.04763190931209</v>
       </c>
       <c r="O27" t="n">
-        <v>79.61305920802778</v>
+        <v>39.21133756998321</v>
       </c>
       <c r="P27" t="n">
         <v>44.36814908503999</v>
@@ -36917,13 +36917,13 @@
         <v>64.2305037586743</v>
       </c>
       <c r="M30" t="n">
-        <v>41.64591027126751</v>
+        <v>82.04763190931209</v>
       </c>
       <c r="N30" t="n">
         <v>82.04763190931209</v>
       </c>
       <c r="O30" t="n">
-        <v>79.61305920802778</v>
+        <v>39.21133756998321</v>
       </c>
       <c r="P30" t="n">
         <v>44.36814908503999</v>
@@ -37154,10 +37154,10 @@
         <v>64.2305037586743</v>
       </c>
       <c r="M33" t="n">
-        <v>41.64591027126751</v>
+        <v>82.04763190931209</v>
       </c>
       <c r="N33" t="n">
-        <v>82.04763190931209</v>
+        <v>41.64591027126749</v>
       </c>
       <c r="O33" t="n">
         <v>79.61305920802778</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>12.97021757020698</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>64.2305037586743</v>
@@ -37631,10 +37631,10 @@
         <v>67.52129922657747</v>
       </c>
       <c r="N39" t="n">
+        <v>23.7158123073567</v>
+      </c>
+      <c r="O39" t="n">
         <v>67.52129922657747</v>
-      </c>
-      <c r="O39" t="n">
-        <v>10.74559473714972</v>
       </c>
       <c r="P39" t="n">
         <v>44.36814908503999</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>12.97021757020698</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>64.2305037586743</v>
       </c>
       <c r="M42" t="n">
-        <v>67.52129922657747</v>
+        <v>23.71581230735668</v>
       </c>
       <c r="N42" t="n">
         <v>67.52129922657747</v>
       </c>
       <c r="O42" t="n">
-        <v>10.74559473714972</v>
+        <v>67.52129922657747</v>
       </c>
       <c r="P42" t="n">
         <v>44.36814908503999</v>
@@ -38023,7 +38023,7 @@
         <v>39.69256086708162</v>
       </c>
       <c r="M44" t="n">
-        <v>47.08681898620325</v>
+        <v>55.37163793165955</v>
       </c>
       <c r="N44" t="n">
         <v>55.37163793165955</v>
@@ -38032,7 +38032,7 @@
         <v>55.37163793165955</v>
       </c>
       <c r="P44" t="n">
-        <v>19.77753954305464</v>
+        <v>11.49272059759832</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>12.97021757020698</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>55.37163793165955</v>
       </c>
       <c r="M45" t="n">
-        <v>51.16767131184346</v>
+        <v>53.13440003543087</v>
       </c>
       <c r="N45" t="n">
         <v>55.37163793165955</v>
@@ -38111,7 +38111,7 @@
         <v>55.37163793165955</v>
       </c>
       <c r="P45" t="n">
-        <v>44.36814908503999</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
